--- a/EDC22通信协议v0.9.xlsx
+++ b/EDC22通信协议v0.9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\EDC22更新\edchost22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EDC23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F51BFA-D56A-45CA-857D-7D9C08BA48DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFDFCE9-0E72-49B6-942C-7E34E567FF69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -385,21 +397,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,25 +674,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="7" width="16.125" customWidth="1"/>
+    <col min="3" max="7" width="16.08203125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="31.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45" customWidth="1"/>
-    <col min="11" max="11" width="31.875" customWidth="1"/>
+    <col min="11" max="11" width="31.83203125" customWidth="1"/>
     <col min="12" max="12" width="29.75" customWidth="1"/>
-    <col min="13" max="13" width="34.125" customWidth="1"/>
+    <col min="13" max="13" width="34.08203125" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -732,47 +732,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -782,11 +782,11 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="J5" t="s">
         <v>10</v>
       </c>
@@ -800,247 +800,247 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1078,778 +1078,792 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>58</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>59</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>61</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>62</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>63</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>64</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>65</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>66</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>67</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>68</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="B38:I38"/>
     <mergeCell ref="B71:I71"/>
@@ -1866,40 +1880,26 @@
     <mergeCell ref="B48:I48"/>
     <mergeCell ref="B49:I49"/>
     <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B70:I70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
